--- a/Labs/Lab9/Assignment9Rubric.xlsx
+++ b/Labs/Lab9/Assignment9Rubric.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS246-CourseMaterials/Labs/Lab9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS246-CourseMaterials\Labs\Lab9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9EA61-7049-2149-8AB9-3681BCEAE9B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C8EF9-9E45-4F3B-AD5B-B8C76718D01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="500" windowWidth="11760" windowHeight="14640" xr2:uid="{2ED55EEA-81A7-FF44-BCE3-68AB9ADB8259}"/>
+    <workbookView xWindow="-16212" yWindow="5676" windowWidth="15468" windowHeight="10992" activeTab="1" xr2:uid="{2ED55EEA-81A7-FF44-BCE3-68AB9ADB8259}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Grade" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -184,6 +195,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,33 +518,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD13E5-EC24-C14D-9BEE-EA2BBE4DEF6B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,13 +552,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -548,7 +566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -556,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -564,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -573,17 +591,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -591,7 +609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -599,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -608,17 +626,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -626,7 +644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1">
+    <row r="18" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -634,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1">
+    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -643,11 +661,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1">
+    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1">
+    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
@@ -656,31 +674,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1">
+    <row r="22" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
@@ -694,36 +712,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF6DB9-5046-F545-B378-AB8AF91CAAF1}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.296875" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,14 +759,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -757,12 +777,13 @@
       <c r="C6" s="2">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10">
         <f>C6/B6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -772,12 +793,13 @@
       <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="11"/>
+      <c r="F7" s="10">
         <f>C7/B7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -787,12 +809,13 @@
       <c r="C8" s="2">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10">
         <f>C8/B8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -804,24 +827,29 @@
         <f>SUM(C6:C8)</f>
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10">
         <f>C9/B9</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -831,12 +859,13 @@
       <c r="C12" s="2">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="11"/>
+      <c r="F12" s="10">
         <f>C12/B12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -846,12 +875,13 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="11"/>
+      <c r="F13" s="10">
         <f>C13/B13</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -863,24 +893,29 @@
         <f>SUM(C12:C13)</f>
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="11"/>
+      <c r="F14" s="10">
         <f>C14/B14</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -890,12 +925,13 @@
       <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="11"/>
+      <c r="F17" s="10">
         <f>C17/B17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -905,12 +941,13 @@
       <c r="C18" s="2">
         <v>15</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
         <f>C18/B18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -922,17 +959,19 @@
         <f>SUM(C17:C18)</f>
         <v>30</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="11"/>
+      <c r="F19" s="10">
         <f>C19/B19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
@@ -944,6 +983,7 @@
         <f>SUM(C9,C14,C19)</f>
         <v>100</v>
       </c>
+      <c r="E21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
